--- a/resource/40.design/440.development/[Saturn]449crawling_insert/24유산균2.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/24유산균2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P3" sqref="P3:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -755,10 +755,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>395</v>
+        <v>206</v>
       </c>
       <c r="C3" s="6">
-        <v>395</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="I3" s="11">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -800,15 +800,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (395, 395, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, 206, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="C4" s="6">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -827,11 +827,11 @@
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I12" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J12" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -850,15 +850,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P12" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (396, 396, '자로우 펨 도필러스 60 캡슐 상온보관용', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, 207, '자로우 펨 도필러스 60 캡슐 상온보관용', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -877,11 +877,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -900,15 +900,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (397, 397, '자로우 프리바이오틱스 XOS+GOS 90츄어블', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, 208, '자로우 프리바이오틱스 XOS+GOS 90츄어블', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="C6" s="6">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -927,11 +927,11 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -950,15 +950,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (398, 398, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, 209, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>399</v>
+        <v>210</v>
       </c>
       <c r="C7" s="6">
-        <v>399</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1000,15 +1000,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (399, 399, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, 210, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="C8" s="6">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -1027,11 +1027,11 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (400, 400, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, 211, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="C9" s="6">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1100,15 +1100,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (401, 401, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, 212, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>402</v>
+        <v>213</v>
       </c>
       <c r="C10" s="6">
-        <v>402</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1127,11 +1127,11 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1150,15 +1150,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (402, 402, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, 213, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="C11" s="6">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1200,15 +1200,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (403, 403, '네이처스웨이 프리마도필러스 루테리 파우더 5oz (141.75g)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/25/1000000263/1000000263_main_090.jpg', 24200, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, 214, '네이처스웨이 프리마도필러스 루테리 파우더 5oz (141.75g)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/25/1000000263/1000000263_main_090.jpg', 24200, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="C12" s="6">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (404, 404, '가든오브라이프 원스데일리 남성 500억 프로바이오틱스 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002161/1000002161_main_0100.jpg', 38200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, 215, '가든오브라이프 원스데일리 남성 500억 프로바이오틱스 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002161/1000002161_main_0100.jpg', 38200, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
